--- a/DRL_Automated_Trading/results14/BMW.DE.xlsx
+++ b/DRL_Automated_Trading/results14/BMW.DE.xlsx
@@ -536,7 +536,7 @@
         <v>1000000</v>
       </c>
       <c r="G3" t="n">
-        <v>59.37537853554127</v>
+        <v>59.37538233953333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>1000000</v>
       </c>
       <c r="G4" t="n">
-        <v>60.84102692125009</v>
+        <v>60.84102312502157</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -623,25 +623,25 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>1003180.586966322</v>
+        <v>1003180.52661382</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1003180.586966322</v>
+        <v>1003180.52661382</v>
       </c>
       <c r="G6" t="n">
-        <v>62.05842507973944</v>
+        <v>62.05842130827203</v>
       </c>
       <c r="H6" t="n">
-        <v>666.1577014260728</v>
+        <v>666.1576651928311</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3180.586966322386</v>
+        <v>3180.526613819529</v>
       </c>
     </row>
     <row r="7">
@@ -655,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10174.83903533954</v>
+        <v>10174.83904473593</v>
       </c>
       <c r="E7" t="n">
         <v>15784</v>
       </c>
       <c r="F7" t="n">
-        <v>1002515.232730106</v>
+        <v>1002515.172413798</v>
       </c>
       <c r="G7" t="n">
-        <v>62.87001987422491</v>
+        <v>62.87001605227206</v>
       </c>
       <c r="H7" t="n">
-        <v>665.3542362168596</v>
+        <v>665.3542000214374</v>
       </c>
       <c r="I7" t="n">
-        <v>993005.7479309828</v>
+        <v>993005.6875690836</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10174.83903533954</v>
+        <v>10174.83904473593</v>
       </c>
       <c r="E8" t="n">
         <v>15784</v>
       </c>
       <c r="F8" t="n">
-        <v>994000.1594335926</v>
+        <v>994000.1594429889</v>
       </c>
       <c r="G8" t="n">
         <v>62.33054488078136</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>993005.7479309828</v>
+        <v>993005.6875690836</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>85.45315633151354</v>
+        <v>85.45316572789621</v>
       </c>
       <c r="E9" t="n">
         <v>15946</v>
       </c>
       <c r="F9" t="n">
-        <v>988679.3617905463</v>
+        <v>988679.3617999427</v>
       </c>
       <c r="G9" t="n">
         <v>61.99635699449485</v>
@@ -734,7 +734,7 @@
         <v>45.9760458998649</v>
       </c>
       <c r="I9" t="n">
-        <v>1003095.133809991</v>
+        <v>1003095.073448092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>10.9740123968649</v>
+        <v>10.97402179324757</v>
       </c>
       <c r="E10" t="n">
         <v>15947</v>
       </c>
       <c r="F10" t="n">
-        <v>979302.5923382387</v>
+        <v>979302.5923476351</v>
       </c>
       <c r="G10" t="n">
         <v>61.40914393464864</v>
@@ -766,7 +766,7 @@
         <v>13.07</v>
       </c>
       <c r="I10" t="n">
-        <v>1003169.612953926</v>
+        <v>1003169.552592026</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.9740123968649</v>
+        <v>10.97402179324757</v>
       </c>
       <c r="E11" t="n">
         <v>15947</v>
       </c>
       <c r="F11" t="n">
-        <v>977932.2061772817</v>
+        <v>977932.206186678</v>
       </c>
       <c r="G11" t="n">
         <v>61.32321014390699</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1003169.612953926</v>
+        <v>1003169.552592026</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -815,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>10.9740123968649</v>
+        <v>10.97402179324757</v>
       </c>
       <c r="E12" t="n">
         <v>15947</v>
       </c>
       <c r="F12" t="n">
-        <v>941616.9828720635</v>
+        <v>941617.0433915362</v>
       </c>
       <c r="G12" t="n">
-        <v>59.04596531383123</v>
+        <v>59.04596910828012</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1003169.612953926</v>
+        <v>1003169.552592026</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.9740123968649</v>
+        <v>10.97402179324757</v>
       </c>
       <c r="E13" t="n">
         <v>15947</v>
       </c>
       <c r="F13" t="n">
-        <v>958670.6881191181</v>
+        <v>958670.6881285144</v>
       </c>
       <c r="G13" t="n">
         <v>60.11536427583378</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1003169.612953926</v>
+        <v>1003169.552592026</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10.9740123968649</v>
+        <v>10.97402179324757</v>
       </c>
       <c r="E14" t="n">
         <v>15947</v>
       </c>
       <c r="F14" t="n">
-        <v>964761.2199542787</v>
+        <v>964761.219963675</v>
       </c>
       <c r="G14" t="n">
         <v>60.49728763666406</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1003169.612953926</v>
+        <v>1003169.552592026</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>963884.2203087966</v>
+        <v>963884.220318193</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>963884.2203087966</v>
+        <v>963884.220318193</v>
       </c>
       <c r="G15" t="n">
         <v>60.48296917552298</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-39296.36665752577</v>
+        <v>-39296.30629562656</v>
       </c>
     </row>
     <row r="16">
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>963884.2203087966</v>
+        <v>963884.220318193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>963884.2203087966</v>
+        <v>963884.220318193</v>
       </c>
       <c r="G16" t="n">
         <v>61.36140226619474</v>
@@ -975,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>9798.868655881804</v>
+        <v>9798.868665278151</v>
       </c>
       <c r="E17" t="n">
         <v>15805</v>
       </c>
       <c r="F17" t="n">
-        <v>963242.2043074057</v>
+        <v>963242.2043168021</v>
       </c>
       <c r="G17" t="n">
         <v>60.32542459041593</v>
@@ -1007,13 +1007,13 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="G18" t="n">
         <v>61.24682615343745</v>
@@ -1039,13 +1039,13 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="G19" t="n">
         <v>60.58322676929076</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>977154.2023585477</v>
+        <v>977154.2023679441</v>
       </c>
       <c r="G20" t="n">
-        <v>59.4995050104267</v>
+        <v>59.49950887756283</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9900.819750006231</v>
+        <v>9900.819759402577</v>
       </c>
       <c r="E21" t="n">
         <v>17274</v>
       </c>
       <c r="F21" t="n">
-        <v>976504.2902762319</v>
+        <v>976504.2902856283</v>
       </c>
       <c r="G21" t="n">
         <v>55.95713039980466</v>
@@ -1135,13 +1135,13 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="G22" t="n">
         <v>55.63726677658072</v>
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="G23" t="n">
         <v>55.49404035283693</v>
@@ -1199,16 +1199,16 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="G24" t="n">
-        <v>56.47273477058364</v>
+        <v>56.47273099008314</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>970332.3691608823</v>
+        <v>970332.3691702787</v>
       </c>
       <c r="G25" t="n">
         <v>58.49217378235647</v>
@@ -1263,22 +1263,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>9854.951880590623</v>
+        <v>9855.01326277411</v>
       </c>
       <c r="E26" t="n">
         <v>16319</v>
       </c>
       <c r="F26" t="n">
-        <v>969686.5202198788</v>
+        <v>969686.5202660767</v>
       </c>
       <c r="G26" t="n">
-        <v>58.81681281569264</v>
+        <v>58.81680905712988</v>
       </c>
       <c r="H26" t="n">
-        <v>645.8489410035729</v>
+        <v>645.8489042019816</v>
       </c>
       <c r="I26" t="n">
-        <v>960477.4172802917</v>
+        <v>960477.3559075046</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>118.0050609756116</v>
+        <v>118.0664431590984</v>
       </c>
       <c r="E27" t="n">
         <v>16478</v>
       </c>
       <c r="F27" t="n">
-        <v>1004465.796346055</v>
+        <v>1004465.857728238</v>
       </c>
       <c r="G27" t="n">
         <v>60.95083088269687</v>
@@ -1310,7 +1310,7 @@
         <v>45.76470926620929</v>
       </c>
       <c r="I27" t="n">
-        <v>970214.3640999066</v>
+        <v>970214.3027271195</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1327,22 +1327,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.0050609756116</v>
+        <v>118.0664431590984</v>
       </c>
       <c r="E28" t="n">
         <v>16478</v>
       </c>
       <c r="F28" t="n">
-        <v>1006668.454459478</v>
+        <v>1006668.57909076</v>
       </c>
       <c r="G28" t="n">
-        <v>61.08450354402856</v>
+        <v>61.08450738242509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>970214.3640999066</v>
+        <v>970214.3027271195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E29" t="n">
         <v>16479</v>
       </c>
       <c r="F29" t="n">
-        <v>1051181.213162643</v>
+        <v>1051181.274544827</v>
       </c>
       <c r="G29" t="n">
         <v>63.7866414675123</v>
@@ -1374,7 +1374,7 @@
         <v>13.07</v>
       </c>
       <c r="I29" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E30" t="n">
         <v>16479</v>
       </c>
       <c r="F30" t="n">
-        <v>1077221.742029451</v>
+        <v>1077221.803411634</v>
       </c>
       <c r="G30" t="n">
         <v>65.36686653376677</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E31" t="n">
         <v>16479</v>
       </c>
       <c r="F31" t="n">
-        <v>1097676.455061681</v>
+        <v>1097676.516443864</v>
       </c>
       <c r="G31" t="n">
         <v>66.6081258961207</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E32" t="n">
         <v>16479</v>
       </c>
       <c r="F32" t="n">
-        <v>1101216.735400368</v>
+        <v>1101216.796782552</v>
       </c>
       <c r="G32" t="n">
         <v>66.8229617683634</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E33" t="n">
         <v>16479</v>
       </c>
       <c r="F33" t="n">
-        <v>1111444.1386565</v>
+        <v>1111444.200038683</v>
       </c>
       <c r="G33" t="n">
         <v>67.4435942858785</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E34" t="n">
         <v>16479</v>
       </c>
       <c r="F34" t="n">
-        <v>1139294.152679593</v>
+        <v>1139294.214061777</v>
       </c>
       <c r="G34" t="n">
         <v>69.13362487166</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E35" t="n">
         <v>16479</v>
       </c>
       <c r="F35" t="n">
-        <v>1141575.633961813</v>
+        <v>1141575.570136943</v>
       </c>
       <c r="G35" t="n">
-        <v>69.27207267081161</v>
+        <v>69.27206507283523</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E36" t="n">
         <v>16479</v>
       </c>
       <c r="F36" t="n">
-        <v>1149442.799277612</v>
+        <v>1149442.860659795</v>
       </c>
       <c r="G36" t="n">
         <v>69.7494781757451</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E37" t="n">
         <v>16479</v>
       </c>
       <c r="F37" t="n">
-        <v>1157624.702436746</v>
+        <v>1157624.763818929</v>
       </c>
       <c r="G37" t="n">
         <v>70.24598300972374</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E38" t="n">
         <v>16479</v>
       </c>
       <c r="F38" t="n">
-        <v>1163367.8432126</v>
+        <v>1163367.904594783</v>
       </c>
       <c r="G38" t="n">
         <v>70.5944957092719</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E39" t="n">
         <v>16479</v>
       </c>
       <c r="F39" t="n">
-        <v>1165334.621689392</v>
+        <v>1165334.683071576</v>
       </c>
       <c r="G39" t="n">
         <v>70.71384630559405</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.1484195080993</v>
+        <v>41.20980169158609</v>
       </c>
       <c r="E40" t="n">
         <v>16479</v>
       </c>
       <c r="F40" t="n">
-        <v>1190195.02439921</v>
+        <v>1190195.085781393</v>
       </c>
       <c r="G40" t="n">
         <v>72.22245742943755</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>970291.2207413742</v>
+        <v>970291.1593685871</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -1743,25 +1743,25 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>1194678.818313773</v>
+        <v>1194679.00630351</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1194678.818313773</v>
+        <v>1194679.00630351</v>
       </c>
       <c r="G41" t="n">
-        <v>72.54231900110179</v>
+        <v>72.54232668867772</v>
       </c>
       <c r="H41" t="n">
-        <v>787.2049248914939</v>
+        <v>787.2050009016322</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224346.4491528906</v>
+        <v>224346.6371332315</v>
       </c>
     </row>
     <row r="42">
@@ -1775,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>12159.36595295771</v>
+        <v>12159.55394269508</v>
       </c>
       <c r="E42" t="n">
         <v>16614</v>
       </c>
       <c r="F42" t="n">
-        <v>1193899.824038921</v>
+        <v>1193900.012028659</v>
       </c>
       <c r="G42" t="n">
         <v>71.12919574370792</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>89.83602985776838</v>
+        <v>90.02533470432965</v>
       </c>
       <c r="E43" t="n">
         <v>16786</v>
       </c>
       <c r="F43" t="n">
-        <v>1173388.929766381</v>
+        <v>1173388.990802707</v>
       </c>
       <c r="G43" t="n">
-        <v>69.89747966975594</v>
+        <v>69.89747202835713</v>
       </c>
       <c r="H43" t="n">
-        <v>47.16341990191881</v>
+        <v>47.16341911332646</v>
       </c>
       <c r="I43" t="n">
-        <v>1194588.982283915</v>
+        <v>1194588.980968806</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E44" t="n">
         <v>16787</v>
       </c>
       <c r="F44" t="n">
-        <v>1170170.254716594</v>
+        <v>1170170.444021441</v>
       </c>
       <c r="G44" t="n">
         <v>69.70651070455955</v>
@@ -1854,7 +1854,7 @@
         <v>13.07</v>
       </c>
       <c r="I44" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E45" t="n">
         <v>16787</v>
       </c>
       <c r="F45" t="n">
-        <v>1189244.235463726</v>
+        <v>1189244.424768573</v>
       </c>
       <c r="G45" t="n">
         <v>70.84274593105218</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E46" t="n">
         <v>16787</v>
       </c>
       <c r="F46" t="n">
-        <v>1183634.284623967</v>
+        <v>1183634.473928814</v>
       </c>
       <c r="G46" t="n">
         <v>70.5085616908807</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E47" t="n">
         <v>16787</v>
       </c>
       <c r="F47" t="n">
-        <v>1185076.869615252</v>
+        <v>1185077.058920099</v>
       </c>
       <c r="G47" t="n">
         <v>70.59449634217543</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E48" t="n">
         <v>16787</v>
       </c>
       <c r="F48" t="n">
-        <v>1194133.037578408</v>
+        <v>1194133.226883255</v>
       </c>
       <c r="G48" t="n">
         <v>71.13397140997529</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E49" t="n">
         <v>16787</v>
       </c>
       <c r="F49" t="n">
-        <v>1184676.256068491</v>
+        <v>1184676.316933751</v>
       </c>
       <c r="G49" t="n">
-        <v>70.57063183113941</v>
+        <v>70.57062418000547</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>7.059519153208832</v>
+        <v>7.248823999770103</v>
       </c>
       <c r="E50" t="n">
         <v>16787</v>
       </c>
       <c r="F50" t="n">
-        <v>1174017.241695639</v>
+        <v>1174017.431000486</v>
       </c>
       <c r="G50" t="n">
         <v>69.93567535452947</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1194671.75879462</v>
+        <v>1194671.757479511</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,13 +2063,13 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>1175405.424635924</v>
+        <v>1175405.613940771</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1175405.424635924</v>
+        <v>1175405.613940771</v>
       </c>
       <c r="G51" t="n">
         <v>70.06457494063787</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-19273.39367784886</v>
+        <v>-19273.39236273966</v>
       </c>
     </row>
     <row r="52">
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1175405.424635924</v>
+        <v>1175405.613940771</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1175405.424635924</v>
+        <v>1175405.613940771</v>
       </c>
       <c r="G52" t="n">
         <v>68.95698213120269</v>
@@ -2127,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>11926.71148688298</v>
+        <v>11926.90079172932</v>
       </c>
       <c r="E53" t="n">
         <v>17230</v>
       </c>
       <c r="F53" t="n">
-        <v>1174637.847954044</v>
+        <v>1174638.03725889</v>
       </c>
       <c r="G53" t="n">
         <v>67.48178389246436</v>
@@ -2159,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>11926.71148688298</v>
+        <v>11926.90079172932</v>
       </c>
       <c r="E54" t="n">
         <v>17230</v>
       </c>
       <c r="F54" t="n">
-        <v>1192076.466109287</v>
+        <v>1192076.786548689</v>
       </c>
       <c r="G54" t="n">
-        <v>68.49389173664564</v>
+        <v>68.49389934747298</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2191,16 +2191,16 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>11926.71148688298</v>
+        <v>11926.90079172932</v>
       </c>
       <c r="E55" t="n">
         <v>17230</v>
       </c>
       <c r="F55" t="n">
-        <v>1210255.515769403</v>
+        <v>1210255.575435157</v>
       </c>
       <c r="G55" t="n">
-        <v>69.54897297054674</v>
+        <v>69.54896544651352</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>115.080552433284</v>
+        <v>115.269857279623</v>
       </c>
       <c r="E56" t="n">
         <v>17394</v>
       </c>
       <c r="F56" t="n">
-        <v>1247882.384644478</v>
+        <v>1247882.573949324</v>
       </c>
       <c r="G56" t="n">
         <v>71.73550098264026</v>
@@ -2255,13 +2255,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>30.78109892557216</v>
+        <v>30.97040377191109</v>
       </c>
       <c r="E57" t="n">
         <v>17395</v>
       </c>
       <c r="F57" t="n">
-        <v>1239067.124865573</v>
+        <v>1239067.31417042</v>
       </c>
       <c r="G57" t="n">
         <v>71.22945350771187</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>30.78109892557216</v>
+        <v>30.97040377191109</v>
       </c>
       <c r="E58" t="n">
         <v>17395</v>
       </c>
       <c r="F58" t="n">
-        <v>1234250.355059239</v>
+        <v>1234250.544364085</v>
       </c>
       <c r="G58" t="n">
         <v>70.95254808624971</v>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>30.78109892557216</v>
+        <v>30.97040377191109</v>
       </c>
       <c r="E59" t="n">
         <v>17395</v>
       </c>
       <c r="F59" t="n">
-        <v>1180520.088348927</v>
+        <v>1180520.277653773</v>
       </c>
       <c r="G59" t="n">
         <v>67.86371412762297</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>30.78109892557216</v>
+        <v>30.97040377191109</v>
       </c>
       <c r="E60" t="n">
         <v>17395</v>
       </c>
       <c r="F60" t="n">
-        <v>1202942.344156036</v>
+        <v>1202942.533460882</v>
       </c>
       <c r="G60" t="n">
         <v>69.15271992280024</v>
@@ -2383,13 +2383,13 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>1208956.304405258</v>
+        <v>1208956.493710104</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1208956.304405258</v>
+        <v>1208956.493710104</v>
       </c>
       <c r="G61" t="n">
         <v>69.54419695832058</v>
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1208956.304405258</v>
+        <v>1208956.493710104</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1208956.304405258</v>
+        <v>1208956.493710104</v>
       </c>
       <c r="G62" t="n">
         <v>71.04803625323612</v>
@@ -2447,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>12268.26602139065</v>
+        <v>12268.45532623699</v>
       </c>
       <c r="E63" t="n">
         <v>17043</v>
       </c>
       <c r="F63" t="n">
-        <v>1208168.814076425</v>
+        <v>1208169.003381271</v>
       </c>
       <c r="G63" t="n">
         <v>70.16960324209555</v>
@@ -2479,13 +2479,13 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>1195021.379449493</v>
+        <v>1195021.568754339</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1195021.379449493</v>
+        <v>1195021.568754339</v>
       </c>
       <c r="G64" t="n">
         <v>69.44394668415802</v>
@@ -2511,13 +2511,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>12132.34788088364</v>
+        <v>12132.53718572998</v>
       </c>
       <c r="E65" t="n">
         <v>17106</v>
       </c>
       <c r="F65" t="n">
-        <v>1194242.163560085</v>
+        <v>1194242.352864932</v>
       </c>
       <c r="G65" t="n">
         <v>69.10498162511411</v>
@@ -2543,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>12132.34788088364</v>
+        <v>12132.53718572998</v>
       </c>
       <c r="E66" t="n">
         <v>17106</v>
       </c>
       <c r="F66" t="n">
-        <v>1175050.750256366</v>
+        <v>1175050.939561212</v>
       </c>
       <c r="G66" t="n">
         <v>67.98307040661066</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>1179016.745945049</v>
+        <v>1179016.935249895</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1179016.745945049</v>
+        <v>1179016.935249895</v>
       </c>
       <c r="G67" t="n">
         <v>68.25996381554907</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>1179016.745945049</v>
+        <v>1179016.935249895</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1179016.745945049</v>
+        <v>1179016.935249895</v>
       </c>
       <c r="G68" t="n">
         <v>67.65365311544849</v>
@@ -2639,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>11933.15854911269</v>
+        <v>11933.34785395903</v>
       </c>
       <c r="E69" t="n">
         <v>17248</v>
       </c>
       <c r="F69" t="n">
-        <v>1178247.007635597</v>
+        <v>1178247.196940443</v>
       </c>
       <c r="G69" t="n">
         <v>67.62023707597891</v>
@@ -2671,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>145.5367238407471</v>
+        <v>145.726028687086</v>
       </c>
       <c r="E70" t="n">
         <v>17425</v>
       </c>
       <c r="F70" t="n">
-        <v>1155967.193759922</v>
+        <v>1155967.383064768</v>
       </c>
       <c r="G70" t="n">
         <v>66.33122852430881</v>
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>145.5367238407471</v>
+        <v>145.726028687086</v>
       </c>
       <c r="E71" t="n">
         <v>17425</v>
       </c>
       <c r="F71" t="n">
-        <v>1154386.636869153</v>
+        <v>1154386.958231067</v>
       </c>
       <c r="G71" t="n">
-        <v>66.24052224650285</v>
+        <v>66.24052982510071</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>145.5367238407471</v>
+        <v>145.726028687086</v>
       </c>
       <c r="E72" t="n">
         <v>17425</v>
       </c>
       <c r="F72" t="n">
-        <v>1154053.896597186</v>
+        <v>1154054.085902032</v>
       </c>
       <c r="G72" t="n">
         <v>66.22142667852768</v>
@@ -2767,13 +2767,13 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>1160607.716063564</v>
+        <v>1160607.905368411</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1160607.716063564</v>
+        <v>1160607.905368411</v>
       </c>
       <c r="G73" t="n">
         <v>66.64154184560799</v>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1160607.716063564</v>
+        <v>1160607.905368411</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1160607.716063564</v>
+        <v>1160607.905368411</v>
       </c>
       <c r="G74" t="n">
         <v>66.31213499492625</v>
@@ -2831,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>11746.38641264214</v>
+        <v>11746.57571748848</v>
       </c>
       <c r="E75" t="n">
         <v>17424</v>
       </c>
       <c r="F75" t="n">
-        <v>1159848.90455268</v>
+        <v>1159849.093857527</v>
       </c>
       <c r="G75" t="n">
         <v>65.89201779958896</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>11746.38641264214</v>
+        <v>11746.57571748848</v>
       </c>
       <c r="E76" t="n">
         <v>17424</v>
       </c>
       <c r="F76" t="n">
-        <v>1161429.304416864</v>
+        <v>1161429.62814436</v>
       </c>
       <c r="G76" t="n">
-        <v>65.98272027113302</v>
+        <v>65.98272798593158</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -2895,13 +2895,13 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>102.1876410633398</v>
+        <v>102.3769459096787</v>
       </c>
       <c r="E77" t="n">
         <v>17598</v>
       </c>
       <c r="F77" t="n">
-        <v>1173028.144034146</v>
+        <v>1173028.333338992</v>
       </c>
       <c r="G77" t="n">
         <v>66.65109423758851</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>102.1876410633398</v>
+        <v>102.3769459096787</v>
       </c>
       <c r="E78" t="n">
         <v>17598</v>
       </c>
       <c r="F78" t="n">
-        <v>1194871.864406571</v>
+        <v>1194872.053711418</v>
       </c>
       <c r="G78" t="n">
         <v>67.89235576574089</v>
@@ -2959,25 +2959,25 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>1189718.996050375</v>
+        <v>1189719.318774035</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1189718.996050375</v>
+        <v>1189719.318774035</v>
       </c>
       <c r="G79" t="n">
-        <v>67.64410722858943</v>
+        <v>67.644114814617</v>
       </c>
       <c r="H79" t="n">
-        <v>784.1905994052302</v>
+        <v>784.190679504578</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>29111.27998681087</v>
+        <v>29111.41340562468</v>
       </c>
     </row>
     <row r="80">
@@ -2991,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>12072.00852496652</v>
+        <v>12072.33124862667</v>
       </c>
       <c r="E80" t="n">
         <v>17360</v>
       </c>
       <c r="F80" t="n">
-        <v>1188942.923501389</v>
+        <v>1188943.246225049</v>
       </c>
       <c r="G80" t="n">
         <v>67.79210339725935</v>
@@ -3023,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>146.8670428733313</v>
+        <v>147.1897665334837</v>
       </c>
       <c r="E81" t="n">
         <v>17534</v>
       </c>
       <c r="F81" t="n">
-        <v>1197100.806443727</v>
+        <v>1197101.129167387</v>
       </c>
       <c r="G81" t="n">
         <v>68.26473932935174</v>
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>146.8670428733313</v>
+        <v>147.1897665334837</v>
       </c>
       <c r="E82" t="n">
         <v>17534</v>
       </c>
       <c r="F82" t="n">
-        <v>1193250.203460068</v>
+        <v>1193250.526183728</v>
       </c>
       <c r="G82" t="n">
         <v>68.04513153970541</v>
@@ -3087,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>146.8670428733313</v>
+        <v>147.1897665334837</v>
       </c>
       <c r="E83" t="n">
         <v>17534</v>
       </c>
       <c r="F83" t="n">
-        <v>1167384.072627387</v>
+        <v>1167384.526879876</v>
       </c>
       <c r="G83" t="n">
-        <v>66.56993302067491</v>
+        <v>66.56994052203393</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E84" t="n">
         <v>17536</v>
       </c>
       <c r="F84" t="n">
-        <v>1171389.077715748</v>
+        <v>1171389.400439408</v>
       </c>
       <c r="G84" t="n">
         <v>66.79909208810739</v>
@@ -3151,16 +3151,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E85" t="n">
         <v>17536</v>
       </c>
       <c r="F85" t="n">
-        <v>1176244.848922004</v>
+        <v>1176245.037148212</v>
       </c>
       <c r="G85" t="n">
-        <v>67.07599509941305</v>
+        <v>67.07598742962216</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3183,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E86" t="n">
         <v>17536</v>
       </c>
       <c r="F86" t="n">
-        <v>1193574.405688969</v>
+        <v>1193574.861967493</v>
       </c>
       <c r="G86" t="n">
-        <v>68.06422256103286</v>
+        <v>68.06423017707206</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3215,16 +3215,16 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E87" t="n">
         <v>17536</v>
       </c>
       <c r="F87" t="n">
-        <v>1210736.859751823</v>
+        <v>1210737.047604622</v>
       </c>
       <c r="G87" t="n">
-        <v>69.04292089947111</v>
+        <v>69.04291320838644</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E88" t="n">
         <v>17536</v>
       </c>
       <c r="F88" t="n">
-        <v>1191314.148519682</v>
+        <v>1191314.471243342</v>
       </c>
       <c r="G88" t="n">
         <v>67.93533015858715</v>
@@ -3279,16 +3279,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E89" t="n">
         <v>17536</v>
       </c>
       <c r="F89" t="n">
-        <v>1177667.883980773</v>
+        <v>1177668.341037812</v>
       </c>
       <c r="G89" t="n">
-        <v>67.15714445267314</v>
+        <v>67.1571521131076</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E90" t="n">
         <v>17536</v>
       </c>
       <c r="F90" t="n">
-        <v>1178672.61955251</v>
+        <v>1178672.94227617</v>
       </c>
       <c r="G90" t="n">
         <v>67.21444004868913</v>
@@ -3343,16 +3343,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1988586971165134</v>
+        <v>0.5215823572689189</v>
       </c>
       <c r="E91" t="n">
         <v>17536</v>
       </c>
       <c r="F91" t="n">
-        <v>1166951.909236575</v>
+        <v>1166952.364995321</v>
       </c>
       <c r="G91" t="n">
-        <v>66.54606012647571</v>
+        <v>66.5460677128743</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>1175887.473383602</v>
+        <v>1175887.796107263</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1175887.473383602</v>
+        <v>1175887.796107263</v>
       </c>
       <c r="G92" t="n">
         <v>67.09986441938756</v>
@@ -3407,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>11906.46202183839</v>
+        <v>11906.78474549854</v>
       </c>
       <c r="E93" t="n">
         <v>17279</v>
       </c>
       <c r="F93" t="n">
-        <v>1175119.595503513</v>
+        <v>1175119.918227174</v>
       </c>
       <c r="G93" t="n">
         <v>67.31947065696366</v>
@@ -3439,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>94.41014061107347</v>
+        <v>94.73286427122588</v>
       </c>
       <c r="E94" t="n">
         <v>17455</v>
       </c>
       <c r="F94" t="n">
-        <v>1166905.904703094</v>
+        <v>1166906.227426754</v>
       </c>
       <c r="G94" t="n">
         <v>66.84683440632958</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>94.41014061107347</v>
+        <v>94.73286427122588</v>
       </c>
       <c r="E95" t="n">
         <v>17455</v>
       </c>
       <c r="F95" t="n">
-        <v>1176822.376522579</v>
+        <v>1176822.699246239</v>
       </c>
       <c r="G95" t="n">
         <v>67.41495080962289</v>
@@ -3503,13 +3503,13 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>1181626.320465289</v>
+        <v>1181626.643188949</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1181626.320465289</v>
+        <v>1181626.643188949</v>
       </c>
       <c r="G96" t="n">
         <v>67.7348179360024</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1181626.320465289</v>
+        <v>1181626.643188949</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1181626.320465289</v>
+        <v>1181626.643188949</v>
       </c>
       <c r="G97" t="n">
         <v>67.65842836449281</v>
@@ -3567,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>11984.31256833012</v>
+        <v>11984.63529199027</v>
       </c>
       <c r="E98" t="n">
         <v>17131</v>
       </c>
       <c r="F98" t="n">
-        <v>1180855.048024016</v>
+        <v>1180855.370747676</v>
       </c>
       <c r="G98" t="n">
         <v>68.23131956428028</v>
@@ -3599,13 +3599,13 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>86.5999174346293</v>
+        <v>86.92264109478171</v>
       </c>
       <c r="E99" t="n">
         <v>17305</v>
       </c>
       <c r="F99" t="n">
-        <v>1178681.64216649</v>
+        <v>1178681.96489015</v>
       </c>
       <c r="G99" t="n">
         <v>68.10719689390669</v>
@@ -3631,13 +3631,13 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>1169400.192585859</v>
+        <v>1169400.515309519</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1169400.192585859</v>
+        <v>1169400.515309519</v>
       </c>
       <c r="G100" t="n">
         <v>67.61546339351858</v>
@@ -3663,16 +3663,16 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>1169400.192585859</v>
+        <v>1169400.515309519</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1169400.192585859</v>
+        <v>1169400.515309519</v>
       </c>
       <c r="G101" t="n">
-        <v>66.93753575164007</v>
+        <v>66.93754346743209</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3695,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>11886.84901017631</v>
+        <v>11887.17173383647</v>
       </c>
       <c r="E102" t="n">
         <v>17364</v>
       </c>
       <c r="F102" t="n">
-        <v>1168636.192979477</v>
+        <v>1168636.515703137</v>
       </c>
       <c r="G102" t="n">
         <v>66.61767703117374</v>
@@ -3727,13 +3727,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>85.99398457641099</v>
+        <v>86.3167082365634</v>
       </c>
       <c r="E103" t="n">
         <v>17536</v>
       </c>
       <c r="F103" t="n">
-        <v>1198432.279985765</v>
+        <v>1198432.602709426</v>
       </c>
       <c r="G103" t="n">
         <v>68.3363529882065</v>
@@ -3759,13 +3759,13 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>1185846.13262233</v>
+        <v>1185846.45534599</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1185846.13262233</v>
+        <v>1185846.45534599</v>
       </c>
       <c r="G104" t="n">
         <v>67.66320790636755</v>
@@ -3791,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>12060.57119717632</v>
+        <v>12060.89392083648</v>
       </c>
       <c r="E105" t="n">
         <v>17045</v>
       </c>
       <c r="F105" t="n">
-        <v>1185072.375539724</v>
+        <v>1185072.698263385</v>
       </c>
       <c r="G105" t="n">
         <v>68.81852768216768</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>12060.57119717632</v>
+        <v>12060.89392083648</v>
       </c>
       <c r="E106" t="n">
         <v>17045</v>
       </c>
       <c r="F106" t="n">
-        <v>1191907.936840322</v>
+        <v>1191908.259563982</v>
       </c>
       <c r="G106" t="n">
         <v>69.21955797261049</v>
@@ -3855,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>12060.57119717632</v>
+        <v>12060.89392083648</v>
       </c>
       <c r="E107" t="n">
         <v>17045</v>
       </c>
       <c r="F107" t="n">
-        <v>1225352.89091615</v>
+        <v>1225353.086245487</v>
       </c>
       <c r="G107" t="n">
-        <v>71.18171426922697</v>
+        <v>71.1817067952274</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>128.2927707653386</v>
+        <v>128.6154944254911</v>
       </c>
       <c r="E108" t="n">
         <v>17209</v>
       </c>
       <c r="F108" t="n">
-        <v>1247276.832245292</v>
+        <v>1247277.154968952</v>
       </c>
       <c r="G108" t="n">
         <v>72.4707152928425</v>
@@ -3919,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E109" t="n">
         <v>17210</v>
       </c>
       <c r="F109" t="n">
-        <v>1247592.30883349</v>
+        <v>1247592.63155715</v>
       </c>
       <c r="G109" t="n">
         <v>72.48980684890026</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E110" t="n">
         <v>17210</v>
       </c>
       <c r="F110" t="n">
-        <v>1284893.927202106</v>
+        <v>1284894.249925767</v>
       </c>
       <c r="G110" t="n">
         <v>74.65724545253865</v>
@@ -3983,16 +3983,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E111" t="n">
         <v>17210</v>
       </c>
       <c r="F111" t="n">
-        <v>1305270.275536665</v>
+        <v>1305270.467222395</v>
       </c>
       <c r="G111" t="n">
-        <v>75.84122850509871</v>
+        <v>75.84122089104119</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4015,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E112" t="n">
         <v>17210</v>
       </c>
       <c r="F112" t="n">
-        <v>1321620.464878284</v>
+        <v>1321620.787601945</v>
       </c>
       <c r="G112" t="n">
         <v>76.7912685598122</v>
@@ -4047,13 +4047,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E113" t="n">
         <v>17210</v>
       </c>
       <c r="F113" t="n">
-        <v>1315458.284123042</v>
+        <v>1315458.606846702</v>
       </c>
       <c r="G113" t="n">
         <v>76.43321041017582</v>
@@ -4079,13 +4079,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E114" t="n">
         <v>17210</v>
       </c>
       <c r="F114" t="n">
-        <v>1262874.528517878</v>
+        <v>1262874.851241538</v>
       </c>
       <c r="G114" t="n">
         <v>73.37779172306576</v>
@@ -4111,16 +4111,16 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E115" t="n">
         <v>17210</v>
       </c>
       <c r="F115" t="n">
-        <v>1287440.860246849</v>
+        <v>1287441.315192168</v>
       </c>
       <c r="G115" t="n">
-        <v>74.80523691359284</v>
+        <v>74.80524459643181</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>42.73296391643839</v>
+        <v>43.05568757659079</v>
       </c>
       <c r="E116" t="n">
         <v>17210</v>
       </c>
       <c r="F116" t="n">
-        <v>1309213.902481412</v>
+        <v>1309214.355153153</v>
       </c>
       <c r="G116" t="n">
-        <v>76.0703759161822</v>
+        <v>76.07038346691323</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4175,13 +4175,13 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="G117" t="n">
         <v>79.63662571134512</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="G118" t="n">
         <v>83.36041553259969</v>
@@ -4239,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1369696.783659071</v>
+        <v>1369697.106382731</v>
       </c>
       <c r="G119" t="n">
         <v>79.8848845358353</v>
@@ -4271,22 +4271,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>13886.60251047371</v>
+        <v>13886.79732142906</v>
       </c>
       <c r="E120" t="n">
         <v>16961</v>
       </c>
       <c r="F120" t="n">
-        <v>1368813.8772942</v>
+        <v>1368814.199941159</v>
       </c>
       <c r="G120" t="n">
-        <v>79.88486968832774</v>
+        <v>79.88487722538352</v>
       </c>
       <c r="H120" t="n">
-        <v>882.9063648702361</v>
+        <v>882.9064415718381</v>
       </c>
       <c r="I120" t="n">
-        <v>1355810.181148597</v>
+        <v>1355810.309061302</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4303,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>13886.60251047371</v>
+        <v>13886.79732142906</v>
       </c>
       <c r="E121" t="n">
         <v>16961</v>
       </c>
       <c r="F121" t="n">
-        <v>1379178.67631618</v>
+        <v>1379178.871127136</v>
       </c>
       <c r="G121" t="n">
         <v>80.4959656745302</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1355810.181148597</v>
+        <v>1355810.309061302</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
@@ -4335,22 +4335,22 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>162.7263042722508</v>
+        <v>162.9197927867124</v>
       </c>
       <c r="E122" t="n">
         <v>17135</v>
       </c>
       <c r="F122" t="n">
-        <v>1345430.568721018</v>
+        <v>1345430.892361468</v>
       </c>
       <c r="G122" t="n">
-        <v>78.50994119735896</v>
+        <v>78.50994879303653</v>
       </c>
       <c r="H122" t="n">
-        <v>63.14643786100427</v>
+        <v>63.14643865399302</v>
       </c>
       <c r="I122" t="n">
-        <v>1369534.057354799</v>
+        <v>1369534.186589944</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>162.7263042722508</v>
+        <v>162.9197927867124</v>
       </c>
       <c r="E123" t="n">
         <v>17135</v>
       </c>
       <c r="F123" t="n">
-        <v>1350993.258600978</v>
+        <v>1350993.452089493</v>
       </c>
       <c r="G123" t="n">
         <v>78.83458023324809</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1369534.057354799</v>
+        <v>1369534.186589944</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -4399,22 +4399,22 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>162.7263042722508</v>
+        <v>162.9197927867124</v>
       </c>
       <c r="E124" t="n">
         <v>17135</v>
       </c>
       <c r="F124" t="n">
-        <v>1374225.634859704</v>
+        <v>1374225.697314304</v>
       </c>
       <c r="G124" t="n">
-        <v>80.19042360988806</v>
+        <v>80.19041596273809</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1369534.057354799</v>
+        <v>1369534.186589944</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -4431,22 +4431,22 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>162.7263042722508</v>
+        <v>162.9197927867124</v>
       </c>
       <c r="E125" t="n">
         <v>17135</v>
       </c>
       <c r="F125" t="n">
-        <v>1388132.28605699</v>
+        <v>1388132.349984148</v>
       </c>
       <c r="G125" t="n">
-        <v>81.00201690999228</v>
+        <v>81.00200934878094</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1369534.057354799</v>
+        <v>1369534.186589944</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>66.01420717889849</v>
+        <v>66.20770321965463</v>
       </c>
       <c r="E126" t="n">
         <v>17136</v>
       </c>
       <c r="F126" t="n">
-        <v>1433356.989998864</v>
+        <v>1433357.054524322</v>
       </c>
       <c r="G126" t="n">
-        <v>83.64209709335233</v>
+        <v>83.64208956705779</v>
       </c>
       <c r="H126" t="n">
         <v>13.07</v>
       </c>
       <c r="I126" t="n">
-        <v>1369630.769451892</v>
+        <v>1369630.898679511</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,13 +4495,13 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>1448206.533373211</v>
+        <v>1448206.726869252</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1448206.533373211</v>
+        <v>1448206.726869252</v>
       </c>
       <c r="G127" t="n">
         <v>84.56348722667494</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>78509.74971414008</v>
+        <v>78509.62048652093</v>
       </c>
     </row>
     <row r="128">
@@ -4527,22 +4527,22 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>14734.19172350782</v>
+        <v>14734.25604982248</v>
       </c>
       <c r="E128" t="n">
         <v>16834</v>
       </c>
       <c r="F128" t="n">
-        <v>1447277.057653653</v>
+        <v>1447277.251072238</v>
       </c>
       <c r="G128" t="n">
-        <v>85.09818616669509</v>
+        <v>85.09819383523916</v>
       </c>
       <c r="H128" t="n">
-        <v>929.4757195580871</v>
+        <v>929.4757970134496</v>
       </c>
       <c r="I128" t="n">
-        <v>1433472.341649703</v>
+        <v>1433472.470819429</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -4559,22 +4559,22 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>14734.19172350782</v>
+        <v>14734.25604982248</v>
       </c>
       <c r="E129" t="n">
         <v>16834</v>
       </c>
       <c r="F129" t="n">
-        <v>1462385.979388545</v>
+        <v>1462386.172814622</v>
       </c>
       <c r="G129" t="n">
-        <v>85.99571032820705</v>
+        <v>85.99571799719612</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1433472.341649703</v>
+        <v>1433472.470819429</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -4591,22 +4591,22 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>14734.19172350782</v>
+        <v>14734.25604982248</v>
       </c>
       <c r="E130" t="n">
         <v>16834</v>
       </c>
       <c r="F130" t="n">
-        <v>1454590.535329846</v>
+        <v>1454590.470487549</v>
       </c>
       <c r="G130" t="n">
-        <v>85.53263298124858</v>
+        <v>85.53262530816954</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1433472.341649703</v>
+        <v>1433472.470819429</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -4623,13 +4623,13 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>113.2704401137267</v>
+        <v>113.3347664283916</v>
       </c>
       <c r="E131" t="n">
         <v>17006</v>
       </c>
       <c r="F131" t="n">
-        <v>1439417.755454918</v>
+        <v>1439417.819781233</v>
       </c>
       <c r="G131" t="n">
         <v>84.63509849551949</v>
@@ -4638,7 +4638,7 @@
         <v>63.68434216473761</v>
       </c>
       <c r="I131" t="n">
-        <v>1448093.262933097</v>
+        <v>1448093.392102823</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E132" t="n">
         <v>17007</v>
       </c>
       <c r="F132" t="n">
-        <v>1430149.269161002</v>
+        <v>1430149.333487317</v>
       </c>
       <c r="G132" t="n">
         <v>84.09085432911259</v>
@@ -4670,7 +4670,7 @@
         <v>13.07</v>
       </c>
       <c r="I132" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E133" t="n">
         <v>17007</v>
       </c>
       <c r="F133" t="n">
-        <v>1443221.334322881</v>
+        <v>1443221.398649196</v>
       </c>
       <c r="G133" t="n">
         <v>84.8594828445403</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E134" t="n">
         <v>17007</v>
       </c>
       <c r="F134" t="n">
-        <v>1444358.102701944</v>
+        <v>1444358.167028259</v>
       </c>
       <c r="G134" t="n">
         <v>84.92632404987121</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -4751,22 +4751,22 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E135" t="n">
         <v>17007</v>
       </c>
       <c r="F135" t="n">
-        <v>1420974.429772384</v>
+        <v>1420974.624290722</v>
       </c>
       <c r="G135" t="n">
-        <v>83.55138003096366</v>
+        <v>83.55138768616584</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -4783,22 +4783,22 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E136" t="n">
         <v>17007</v>
       </c>
       <c r="F136" t="n">
-        <v>1420974.39676623</v>
+        <v>1420974.590897577</v>
       </c>
       <c r="G136" t="n">
-        <v>83.55137809022435</v>
+        <v>83.55138572267168</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E137" t="n">
         <v>17007</v>
       </c>
       <c r="F137" t="n">
-        <v>1431692.002347362</v>
+        <v>1431692.066673676</v>
       </c>
       <c r="G137" t="n">
         <v>84.18156598821525</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E138" t="n">
         <v>17007</v>
       </c>
       <c r="F138" t="n">
-        <v>1435670.373651525</v>
+        <v>1435670.568781415</v>
       </c>
       <c r="G138" t="n">
-        <v>84.41549150736404</v>
+        <v>84.41549919852507</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E139" t="n">
         <v>17007</v>
       </c>
       <c r="F139" t="n">
-        <v>1413829.44681643</v>
+        <v>1413829.511142745</v>
       </c>
       <c r="G139" t="n">
         <v>83.13125990654703</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -4911,22 +4911,22 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E140" t="n">
         <v>17007</v>
       </c>
       <c r="F140" t="n">
-        <v>1383300.947796257</v>
+        <v>1383300.882407529</v>
       </c>
       <c r="G140" t="n">
-        <v>81.3362049867979</v>
+        <v>81.33619735964191</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>16.10958578461413</v>
+        <v>16.173912099279</v>
       </c>
       <c r="E141" t="n">
         <v>17007</v>
       </c>
       <c r="F141" t="n">
-        <v>1394343.181189356</v>
+        <v>1394343.245515671</v>
       </c>
       <c r="G141" t="n">
         <v>81.98548077871297</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1448190.423787426</v>
+        <v>1448190.552957152</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>1398305.258972195</v>
+        <v>1398305.32329851</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1398305.258972195</v>
+        <v>1398305.32329851</v>
       </c>
       <c r="G142" t="n">
         <v>82.2719244168604</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>-49901.27440101607</v>
+        <v>-49901.40357074211</v>
       </c>
     </row>
     <row r="143">
@@ -5007,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>14220.56783121848</v>
+        <v>14220.63215753321</v>
       </c>
       <c r="E143" t="n">
         <v>16788</v>
       </c>
       <c r="F143" t="n">
-        <v>1397405.398074049</v>
+        <v>1397405.462400364</v>
       </c>
       <c r="G143" t="n">
         <v>82.39128128680193</v>
@@ -5039,22 +5039,22 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>111.5491988886145</v>
+        <v>111.6148278112482</v>
       </c>
       <c r="E144" t="n">
         <v>16959</v>
       </c>
       <c r="F144" t="n">
-        <v>1393094.180296734</v>
+        <v>1393094.116816411</v>
       </c>
       <c r="G144" t="n">
-        <v>82.13825290983229</v>
+        <v>82.13824529680997</v>
       </c>
       <c r="H144" t="n">
-        <v>63.37738474854879</v>
+        <v>63.37738396745271</v>
       </c>
       <c r="I144" t="n">
-        <v>1398193.709773306</v>
+        <v>1398193.708470698</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5071,13 +5071,13 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>16.15476108221552</v>
+        <v>16.22039000484927</v>
       </c>
       <c r="E145" t="n">
         <v>16960</v>
       </c>
       <c r="F145" t="n">
-        <v>1396238.619957609</v>
+        <v>1396238.685586531</v>
       </c>
       <c r="G145" t="n">
         <v>82.32443780639896</v>
@@ -5086,7 +5086,7 @@
         <v>13.07</v>
       </c>
       <c r="I145" t="n">
-        <v>1398289.104211113</v>
+        <v>1398289.102908505</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5103,13 +5103,13 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>16.15476108221552</v>
+        <v>16.22039000484927</v>
       </c>
       <c r="E146" t="n">
         <v>16960</v>
       </c>
       <c r="F146" t="n">
-        <v>1367575.721452947</v>
+        <v>1367575.787081869</v>
       </c>
       <c r="G146" t="n">
         <v>80.63440841343541</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1398289.104211113</v>
+        <v>1398289.102908505</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>16.15476108221552</v>
+        <v>16.22039000484927</v>
       </c>
       <c r="E147" t="n">
         <v>16960</v>
       </c>
       <c r="F147" t="n">
-        <v>1362717.640362909</v>
+        <v>1362717.705991832</v>
       </c>
       <c r="G147" t="n">
         <v>80.34796495293791</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1398289.104211113</v>
+        <v>1398289.102908505</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>16.15476108221552</v>
+        <v>16.22039000484927</v>
       </c>
       <c r="E148" t="n">
         <v>16960</v>
       </c>
       <c r="F148" t="n">
-        <v>1361341.198295863</v>
+        <v>1361341.263924786</v>
       </c>
       <c r="G148" t="n">
         <v>80.26680681219227</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1398289.104211113</v>
+        <v>1398289.102908505</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>16.15476108221552</v>
+        <v>16.22039000484927</v>
       </c>
       <c r="E149" t="n">
         <v>16960</v>
       </c>
       <c r="F149" t="n">
-        <v>1345309.354257178</v>
+        <v>1345309.4198861</v>
       </c>
       <c r="G149" t="n">
         <v>79.32153298915657</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1398289.104211113</v>
+        <v>1398289.102908505</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>1331566.005934744</v>
+        <v>1331565.943322209</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1331566.005934744</v>
+        <v>1331565.943322209</v>
       </c>
       <c r="G150" t="n">
-        <v>78.56245593899158</v>
+        <v>78.5624483730453</v>
       </c>
       <c r="H150" t="n">
-        <v>869.4015516351783</v>
+        <v>869.401474644109</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-66739.25303745084</v>
+        <v>-66739.37997630076</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>13520.13891124296</v>
+        <v>13520.20258691363</v>
       </c>
       <c r="E151" t="n">
         <v>16534</v>
       </c>
       <c r="F151" t="n">
-        <v>1330705.744571348</v>
+        <v>1330705.68203454</v>
       </c>
       <c r="G151" t="n">
-        <v>79.66527190396184</v>
+        <v>79.66526427045039</v>
       </c>
       <c r="H151" t="n">
-        <v>860.2613633960631</v>
+        <v>860.2612876685761</v>
       </c>
       <c r="I151" t="n">
-        <v>1318045.867023501</v>
+        <v>1318045.740735295</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>13520.13891124296</v>
+        <v>13520.20258691363</v>
       </c>
       <c r="E152" t="n">
         <v>16534</v>
       </c>
       <c r="F152" t="n">
-        <v>1337020.493790813</v>
+        <v>1337020.557466484</v>
       </c>
       <c r="G152" t="n">
         <v>80.04719698074089</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1318045.867023501</v>
+        <v>1318045.740735295</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>13520.13891124296</v>
+        <v>13520.20258691363</v>
       </c>
       <c r="E153" t="n">
         <v>16534</v>
       </c>
       <c r="F153" t="n">
-        <v>1349176.520441964</v>
+        <v>1349176.584117635</v>
       </c>
       <c r="G153" t="n">
         <v>80.7824108824677</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1318045.867023501</v>
+        <v>1318045.740735295</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>13520.13891124296</v>
+        <v>13520.20258691363</v>
       </c>
       <c r="E154" t="n">
         <v>16534</v>
       </c>
       <c r="F154" t="n">
-        <v>1340020.030626911</v>
+        <v>1340020.094302582</v>
       </c>
       <c r="G154" t="n">
         <v>80.22861326452571</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1318045.867023501</v>
+        <v>1318045.740735295</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -5391,25 +5391,25 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>1336787.625763551</v>
+        <v>1336787.56427334</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1336787.625763551</v>
+        <v>1336787.56427334</v>
       </c>
       <c r="G155" t="n">
-        <v>80.08539470194202</v>
+        <v>80.08538712718538</v>
       </c>
       <c r="H155" t="n">
-        <v>864.4291496011457</v>
+        <v>864.4290744565299</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>5221.61982880719</v>
+        <v>5221.620951131452</v>
       </c>
     </row>
     <row r="156">
@@ -5423,13 +5423,13 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>13564.43248758144</v>
+        <v>13564.3709973705</v>
       </c>
       <c r="E156" t="n">
         <v>16700</v>
       </c>
       <c r="F156" t="n">
-        <v>1335924.259867124</v>
+        <v>1335924.198376913</v>
       </c>
       <c r="G156" t="n">
         <v>79.18322319637977</v>
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>13564.43248758144</v>
+        <v>13564.3709973705</v>
       </c>
       <c r="E157" t="n">
         <v>16700</v>
       </c>
       <c r="F157" t="n">
-        <v>1394821.417198275</v>
+        <v>1394821.355708064</v>
       </c>
       <c r="G157" t="n">
         <v>82.70999908447266</v>
@@ -5487,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>162.3291181981966</v>
+        <v>162.2676279872593</v>
       </c>
       <c r="E158" t="n">
         <v>16858</v>
       </c>
       <c r="F158" t="n">
-        <v>1423398.966256565</v>
+        <v>1423398.904766354</v>
       </c>
       <c r="G158" t="n">
         <v>84.42499923706055</v>
@@ -5519,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>162.3291181981966</v>
+        <v>162.2676279872593</v>
       </c>
       <c r="E159" t="n">
         <v>16858</v>
       </c>
       <c r="F159" t="n">
-        <v>1434778.167703098</v>
+        <v>1434778.106212887</v>
       </c>
       <c r="G159" t="n">
         <v>85.10000228881836</v>
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>162.3291181981966</v>
+        <v>162.2676279872593</v>
       </c>
       <c r="E160" t="n">
         <v>16858</v>
       </c>
       <c r="F160" t="n">
-        <v>1411008.390275425</v>
+        <v>1411008.328785214</v>
       </c>
       <c r="G160" t="n">
         <v>83.69000244140625</v>
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>65.2641154516146</v>
+        <v>65.20262524067726</v>
       </c>
       <c r="E161" t="n">
         <v>16859</v>
       </c>
       <c r="F161" t="n">
-        <v>1416137.015420078</v>
+        <v>1416136.953929867</v>
       </c>
       <c r="G161" t="n">
         <v>83.99500274658203</v>
@@ -5615,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>65.2641154516146</v>
+        <v>65.20262524067726</v>
       </c>
       <c r="E162" t="n">
         <v>16859</v>
       </c>
       <c r="F162" t="n">
-        <v>1443279.951398014</v>
+        <v>1443279.889907803</v>
       </c>
       <c r="G162" t="n">
         <v>85.60499954223633</v>
@@ -5647,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>65.2641154516146</v>
+        <v>65.20262524067726</v>
       </c>
       <c r="E163" t="n">
         <v>16859</v>
       </c>
       <c r="F163" t="n">
-        <v>1451119.388970493</v>
+        <v>1451119.327480282</v>
       </c>
       <c r="G163" t="n">
         <v>86.06999969482422</v>
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="G164" t="n">
         <v>85.875</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="G165" t="n">
         <v>86.76499938964844</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1446893.279140452</v>
+        <v>1446893.217650241</v>
       </c>
       <c r="G166" t="n">
         <v>87.54999923706055</v>
@@ -5775,13 +5775,13 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>14710.67169943149</v>
+        <v>14710.61020922055</v>
       </c>
       <c r="E167" t="n">
         <v>16491</v>
       </c>
       <c r="F167" t="n">
-        <v>1445964.576797393</v>
+        <v>1445964.515307182</v>
       </c>
       <c r="G167" t="n">
         <v>86.79000091552734</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>14710.67169943149</v>
+        <v>14710.61020922055</v>
       </c>
       <c r="E168" t="n">
         <v>16491</v>
       </c>
       <c r="F168" t="n">
-        <v>1474411.526634124</v>
+        <v>1474411.465143913</v>
       </c>
       <c r="G168" t="n">
         <v>88.51499938964844</v>
@@ -5839,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>109.9293584952091</v>
+        <v>109.8678682842717</v>
       </c>
       <c r="E169" t="n">
         <v>16653</v>
       </c>
       <c r="F169" t="n">
-        <v>1494466.89452268</v>
+        <v>1494466.833032469</v>
       </c>
       <c r="G169" t="n">
         <v>89.73500061035156</v>
@@ -5871,13 +5871,13 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G170" t="n">
         <v>92.28499984741211</v>
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G171" t="n">
         <v>94.4900016784668</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G172" t="n">
         <v>95.02999877929688</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G173" t="n">
         <v>95.11000061035156</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G174" t="n">
         <v>95.17499923706055</v>
@@ -6031,13 +6031,13 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G175" t="n">
         <v>93.55499649047852</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G176" t="n">
         <v>93.77499771118164</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G177" t="n">
         <v>94.68000030517578</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1535939.988555974</v>
+        <v>1535939.927065763</v>
       </c>
       <c r="G178" t="n">
         <v>94.52500152587891</v>
@@ -6159,13 +6159,13 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>15617.50616189938</v>
+        <v>15617.44467168844</v>
       </c>
       <c r="E179" t="n">
         <v>16183</v>
       </c>
       <c r="F179" t="n">
-        <v>1534958.433999271</v>
+        <v>1534958.37250906</v>
       </c>
       <c r="G179" t="n">
         <v>93.8849983215332</v>
@@ -6191,13 +6191,13 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>1516590.580138328</v>
+        <v>1516590.518648117</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1516590.580138328</v>
+        <v>1516590.518648117</v>
       </c>
       <c r="G180" t="n">
         <v>92.80999755859375</v>
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>1516590.580138328</v>
+        <v>1516590.518648117</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1516590.580138328</v>
+        <v>1516590.518648117</v>
       </c>
       <c r="G181" t="n">
         <v>92.04500198364258</v>
@@ -6255,13 +6255,13 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>15415.55217876334</v>
+        <v>15415.49068855241</v>
       </c>
       <c r="E182" t="n">
         <v>16428</v>
       </c>
       <c r="F182" t="n">
-        <v>1515620.507165336</v>
+        <v>1515620.445675125</v>
       </c>
       <c r="G182" t="n">
         <v>91.31999969482422</v>
@@ -6287,13 +6287,13 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>1543792.663424442</v>
+        <v>1543792.601934231</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1543792.663424442</v>
+        <v>1543792.601934231</v>
       </c>
       <c r="G183" t="n">
         <v>93.09500122070312</v>
@@ -6319,13 +6319,13 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>15716.54204310584</v>
+        <v>15716.48055289491</v>
       </c>
       <c r="E184" t="n">
         <v>16535</v>
       </c>
       <c r="F184" t="n">
-        <v>1542806.459473984</v>
+        <v>1542806.397983773</v>
       </c>
       <c r="G184" t="n">
         <v>92.35499954223633</v>
@@ -6351,13 +6351,13 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G185" t="n">
         <v>92.41999816894531</v>
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G186" t="n">
         <v>92.03499984741211</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G187" t="n">
         <v>91.42499923706055</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G188" t="n">
         <v>91.44000244140625</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G189" t="n">
         <v>90.07500076293945</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G190" t="n">
         <v>89.80500030517578</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G191" t="n">
         <v>90.45000076293945</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G192" t="n">
         <v>89.52000045776367</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G193" t="n">
         <v>87.56999969482422</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1542894.362964783</v>
+        <v>1542894.301474572</v>
       </c>
       <c r="G194" t="n">
         <v>85.93999862670898</v>
@@ -6671,13 +6671,13 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>15688.66447540275</v>
+        <v>15688.60298519181</v>
       </c>
       <c r="E195" t="n">
         <v>18000</v>
       </c>
       <c r="F195" t="n">
-        <v>1541908.680954895</v>
+        <v>1541908.619464684</v>
       </c>
       <c r="G195" t="n">
         <v>84.79000091552734</v>
@@ -6703,13 +6703,13 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>175.8502637435068</v>
+        <v>175.7887735325694</v>
       </c>
       <c r="E196" t="n">
         <v>18179</v>
       </c>
       <c r="F196" t="n">
-        <v>1569114.450811534</v>
+        <v>1569114.389321323</v>
       </c>
       <c r="G196" t="n">
         <v>86.30500030517578</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>175.8502637435068</v>
+        <v>175.7887735325694</v>
       </c>
       <c r="E197" t="n">
         <v>18179</v>
       </c>
       <c r="F197" t="n">
-        <v>1599564.261942058</v>
+        <v>1599564.200451847</v>
       </c>
       <c r="G197" t="n">
         <v>87.97999954223633</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>175.8502637435068</v>
+        <v>175.7887735325694</v>
       </c>
       <c r="E198" t="n">
         <v>18179</v>
       </c>
       <c r="F198" t="n">
-        <v>1609653.612489848</v>
+        <v>1609653.550999637</v>
       </c>
       <c r="G198" t="n">
         <v>88.53499984741211</v>
@@ -6799,13 +6799,13 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="G199" t="n">
         <v>88.40999984741211</v>
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="G200" t="n">
         <v>88.11499786376953</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1606346.964257512</v>
+        <v>1606346.902767302</v>
       </c>
       <c r="G201" t="n">
         <v>86.69000244140625</v>
@@ -6895,13 +6895,13 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>16289.10344732342</v>
+        <v>16289.04195711248</v>
       </c>
       <c r="E202" t="n">
         <v>19011</v>
       </c>
       <c r="F202" t="n">
-        <v>1605323.593563443</v>
+        <v>1605323.532073232</v>
       </c>
       <c r="G202" t="n">
         <v>83.58500289916992</v>
@@ -6927,13 +6927,13 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>166.1681411252975</v>
+        <v>166.1066509143602</v>
       </c>
       <c r="E203" t="n">
         <v>19205</v>
       </c>
       <c r="F203" t="n">
-        <v>1589860.07244563</v>
+        <v>1589860.010955419</v>
       </c>
       <c r="G203" t="n">
         <v>82.77500152587891</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>166.1681411252975</v>
+        <v>166.1066509143602</v>
       </c>
       <c r="E204" t="n">
         <v>19205</v>
       </c>
       <c r="F204" t="n">
-        <v>1604935.994515179</v>
+        <v>1604935.933024968</v>
       </c>
       <c r="G204" t="n">
         <v>83.56000137329102</v>
@@ -6991,13 +6991,13 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G205" t="n">
         <v>84.56999969482422</v>
@@ -7023,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G206" t="n">
         <v>85.05500030517578</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G207" t="n">
         <v>84.71999740600586</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G208" t="n">
         <v>84.08999633789062</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G209" t="n">
         <v>84.06000137329102</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1623288.562173741</v>
+        <v>1623288.50068353</v>
       </c>
       <c r="G210" t="n">
         <v>84.32500076293945</v>
@@ -7183,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>16529.63808171137</v>
+        <v>16529.57659150043</v>
       </c>
       <c r="E211" t="n">
         <v>19101</v>
       </c>
       <c r="F211" t="n">
-        <v>1622255.17685048</v>
+        <v>1622255.115360269</v>
       </c>
       <c r="G211" t="n">
         <v>84.06499862670898</v>
@@ -7215,13 +7215,13 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>187.9016364171783</v>
+        <v>187.8401462062409</v>
       </c>
       <c r="E212" t="n">
         <v>19292</v>
       </c>
       <c r="F212" t="n">
-        <v>1644252.165186222</v>
+        <v>1644252.103696011</v>
       </c>
       <c r="G212" t="n">
         <v>85.22000122070312</v>
@@ -7247,13 +7247,13 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>11.76163672235403</v>
+        <v>11.7001465114167</v>
       </c>
       <c r="E213" t="n">
         <v>19294</v>
       </c>
       <c r="F213" t="n">
-        <v>1573148.048692692</v>
+        <v>1573147.987202481</v>
       </c>
       <c r="G213" t="n">
         <v>81.53499984741211</v>
@@ -7279,13 +7279,13 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1571073.751294538</v>
+        <v>1571073.689804327</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1571073.751294538</v>
+        <v>1571073.689804327</v>
       </c>
       <c r="G214" t="n">
         <v>81.48000335693359</v>
@@ -7311,13 +7311,13 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>15959.44000826777</v>
+        <v>15959.37851805683</v>
       </c>
       <c r="E215" t="n">
         <v>19170</v>
       </c>
       <c r="F215" t="n">
-        <v>1570071.334158048</v>
+        <v>1570071.272667837</v>
       </c>
       <c r="G215" t="n">
         <v>81.06999969482422</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>15959.44000826777</v>
+        <v>15959.37851805683</v>
       </c>
       <c r="E216" t="n">
         <v>19170</v>
       </c>
       <c r="F216" t="n">
-        <v>1581285.839735135</v>
+        <v>1581285.778244924</v>
       </c>
       <c r="G216" t="n">
         <v>81.65500259399414</v>
@@ -7375,13 +7375,13 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>142.3786185376992</v>
+        <v>142.3171283267618</v>
       </c>
       <c r="E217" t="n">
         <v>19363</v>
       </c>
       <c r="F217" t="n">
-        <v>1580550.417936622</v>
+        <v>1580550.356446411</v>
       </c>
       <c r="G217" t="n">
         <v>81.61999893188477</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>142.3786185376992</v>
+        <v>142.3171283267618</v>
       </c>
       <c r="E218" t="n">
         <v>19363</v>
       </c>
       <c r="F218" t="n">
-        <v>1585003.972936928</v>
+        <v>1585003.911446717</v>
       </c>
       <c r="G218" t="n">
         <v>81.85000228881836</v>
@@ -7439,13 +7439,13 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G219" t="n">
         <v>81.84500122070312</v>
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G220" t="n">
         <v>82.70999908447266</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G221" t="n">
         <v>83.35499954223633</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G222" t="n">
         <v>81.90999984741211</v>
@@ -7567,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G223" t="n">
         <v>80.69499969482422</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G224" t="n">
         <v>79.72999954223633</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1583886.32839983</v>
+        <v>1583886.26690962</v>
       </c>
       <c r="G225" t="n">
         <v>77.76499938964844</v>
@@ -7663,13 +7663,13 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>16091.3073998305</v>
+        <v>16091.24590961956</v>
       </c>
       <c r="E226" t="n">
         <v>20548</v>
       </c>
       <c r="F226" t="n">
-        <v>1582876.307399831</v>
+        <v>1582876.24590962</v>
       </c>
       <c r="G226" t="n">
         <v>76.25</v>
@@ -7695,13 +7695,13 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>134.1965118376383</v>
+        <v>134.1350216267009</v>
       </c>
       <c r="E227" t="n">
         <v>20753</v>
       </c>
       <c r="F227" t="n">
-        <v>1609010.553178403</v>
+        <v>1609010.491688192</v>
       </c>
       <c r="G227" t="n">
         <v>77.52500152587891</v>
@@ -7727,13 +7727,13 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>43.17651107469882</v>
+        <v>43.11502086376148</v>
       </c>
       <c r="E228" t="n">
         <v>20754</v>
       </c>
       <c r="F228" t="n">
-        <v>1617817.49234512</v>
+        <v>1617817.430854909</v>
       </c>
       <c r="G228" t="n">
         <v>77.95000076293945</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>43.17651107469882</v>
+        <v>43.11502086376148</v>
       </c>
       <c r="E229" t="n">
         <v>20754</v>
       </c>
       <c r="F229" t="n">
-        <v>1623109.705342557</v>
+        <v>1623109.643852346</v>
       </c>
       <c r="G229" t="n">
         <v>78.20499801635742</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>43.17651107469882</v>
+        <v>43.11502086376148</v>
       </c>
       <c r="E230" t="n">
         <v>20754</v>
       </c>
       <c r="F230" t="n">
-        <v>1607544.284512784</v>
+        <v>1607544.223022573</v>
       </c>
       <c r="G230" t="n">
         <v>77.45500183105469</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>43.17651107469882</v>
+        <v>43.11502086376148</v>
       </c>
       <c r="E231" t="n">
         <v>20754</v>
       </c>
       <c r="F231" t="n">
-        <v>1617091.026341702</v>
+        <v>1617090.964851491</v>
       </c>
       <c r="G231" t="n">
         <v>77.91499710083008</v>
@@ -7855,13 +7855,13 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1628392.093773076</v>
+        <v>1628392.032282865</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1628392.093773076</v>
+        <v>1628392.032282865</v>
       </c>
       <c r="G232" t="n">
         <v>78.5099983215332</v>
@@ -7887,13 +7887,13 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>16577.97961045125</v>
+        <v>16577.91812024032</v>
       </c>
       <c r="E233" t="n">
         <v>20057</v>
       </c>
       <c r="F233" t="n">
-        <v>1627355.677154549</v>
+        <v>1627355.615664338</v>
       </c>
       <c r="G233" t="n">
         <v>80.31000137329102</v>
@@ -7919,13 +7919,13 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>16577.97961045125</v>
+        <v>16577.91812024032</v>
       </c>
       <c r="E234" t="n">
         <v>20057</v>
       </c>
       <c r="F234" t="n">
-        <v>1628258.205429085</v>
+        <v>1628258.143938874</v>
       </c>
       <c r="G234" t="n">
         <v>80.35499954223633</v>
@@ -7951,13 +7951,13 @@
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>184.9823474583945</v>
+        <v>184.9208572474571</v>
       </c>
       <c r="E235" t="n">
         <v>20262</v>
       </c>
       <c r="F235" t="n">
-        <v>1614053.313264817</v>
+        <v>1614053.251774606</v>
       </c>
       <c r="G235" t="n">
         <v>79.65000152587891</v>
@@ -7983,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>184.9823474583945</v>
+        <v>184.9208572474571</v>
       </c>
       <c r="E236" t="n">
         <v>20262</v>
       </c>
       <c r="F236" t="n">
-        <v>1614255.899255723</v>
+        <v>1614255.837765512</v>
       </c>
       <c r="G236" t="n">
         <v>79.65999984741211</v>
@@ -8015,13 +8015,13 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>12.1123520360312</v>
+        <v>12.05086182509387</v>
       </c>
       <c r="E237" t="n">
         <v>20264</v>
       </c>
       <c r="F237" t="n">
-        <v>1619105.665971421</v>
+        <v>1619105.60448121</v>
       </c>
       <c r="G237" t="n">
         <v>79.89999771118164</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>12.1123520360312</v>
+        <v>12.05086182509387</v>
       </c>
       <c r="E238" t="n">
         <v>20264</v>
       </c>
       <c r="F238" t="n">
-        <v>1629339.084916733</v>
+        <v>1629339.023426522</v>
       </c>
       <c r="G238" t="n">
         <v>80.40500259399414</v>
@@ -8079,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>12.1123520360312</v>
+        <v>12.05086182509387</v>
       </c>
       <c r="E239" t="n">
         <v>20264</v>
       </c>
       <c r="F239" t="n">
-        <v>1604414.296891831</v>
+        <v>1604414.23540162</v>
       </c>
       <c r="G239" t="n">
         <v>79.17499923706055</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1587484.013015293</v>
+        <v>1587483.951525082</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1587484.013015293</v>
+        <v>1587483.951525082</v>
       </c>
       <c r="G240" t="n">
         <v>78.38999938964844</v>
@@ -8143,13 +8143,13 @@
         <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>16103.75479867752</v>
+        <v>16103.69330846659</v>
       </c>
       <c r="E241" t="n">
         <v>19926</v>
       </c>
       <c r="F241" t="n">
-        <v>1586471.842162874</v>
+        <v>1586471.780672663</v>
       </c>
       <c r="G241" t="n">
         <v>78.81000137329102</v>
@@ -8175,13 +8175,13 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>113.7694805996722</v>
+        <v>113.7079903887349</v>
       </c>
       <c r="E242" t="n">
         <v>20123</v>
       </c>
       <c r="F242" t="n">
-        <v>1626857.092551126</v>
+        <v>1626857.031060915</v>
       </c>
       <c r="G242" t="n">
         <v>80.84000015258789</v>
@@ -8207,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>113.7694805996722</v>
+        <v>113.7079903887349</v>
       </c>
       <c r="E243" t="n">
         <v>20123</v>
       </c>
       <c r="F243" t="n">
-        <v>1656136.094397439</v>
+        <v>1656136.032907228</v>
       </c>
       <c r="G243" t="n">
         <v>82.29500198364258</v>
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="G244" t="n">
         <v>82.70000076293945</v>
@@ -8271,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="G245" t="n">
         <v>82.91999816894531</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1663217.431564019</v>
+        <v>1663217.370073808</v>
       </c>
       <c r="G246" t="n">
         <v>81.54500198364258</v>
@@ -8335,13 +8335,13 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>16919.15515333744</v>
+        <v>16919.09366312651</v>
       </c>
       <c r="E247" t="n">
         <v>21177</v>
       </c>
       <c r="F247" t="n">
-        <v>1662160.336854998</v>
+        <v>1662160.275364787</v>
       </c>
       <c r="G247" t="n">
         <v>77.69000244140625</v>
@@ -8367,13 +8367,13 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>148.2559540301931</v>
+        <v>148.1944638192558</v>
       </c>
       <c r="E248" t="n">
         <v>21388</v>
       </c>
       <c r="F248" t="n">
-        <v>1693543.221225026</v>
+        <v>1693543.159734815</v>
       </c>
       <c r="G248" t="n">
         <v>79.17500305175781</v>
@@ -8399,13 +8399,13 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1721848.007606072</v>
+        <v>1721847.946115861</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1721848.007606072</v>
+        <v>1721847.946115861</v>
       </c>
       <c r="G249" t="n">
         <v>80.54999923706055</v>
@@ -8431,13 +8431,13 @@
         <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>17496.47176211436</v>
+        <v>17496.41027190343</v>
       </c>
       <c r="E250" t="n">
         <v>20872</v>
       </c>
       <c r="F250" t="n">
-        <v>1720756.101828032</v>
+        <v>1720756.040337821</v>
       </c>
       <c r="G250" t="n">
         <v>81.60500335693359</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1706939.82289779</v>
+        <v>1706939.761407579</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1706939.82289779</v>
+        <v>1706939.761407579</v>
       </c>
       <c r="G251" t="n">
         <v>80.99499893188477</v>
@@ -8495,13 +8495,13 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>17359.35320328422</v>
+        <v>17359.29171307329</v>
       </c>
       <c r="E252" t="n">
         <v>20453</v>
       </c>
       <c r="F252" t="n">
-        <v>1705856.774445045</v>
+        <v>1705856.712954834</v>
       </c>
       <c r="G252" t="n">
         <v>82.55500030517578</v>
@@ -8527,13 +8527,13 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1727667.397718436</v>
+        <v>1727667.336228225</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1727667.397718436</v>
+        <v>1727667.336228225</v>
       </c>
       <c r="G253" t="n">
         <v>83.67500305175781</v>
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1727667.397718436</v>
+        <v>1727667.336228225</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1727667.397718436</v>
+        <v>1727667.336228225</v>
       </c>
       <c r="G254" t="n">
         <v>83.98500061035156</v>
@@ -8591,13 +8591,13 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>17587.86399954212</v>
+        <v>17587.80250933118</v>
       </c>
       <c r="E255" t="n">
         <v>20407</v>
       </c>
       <c r="F255" t="n">
-        <v>1726572.057202514</v>
+        <v>1726571.995712304</v>
       </c>
       <c r="G255" t="n">
         <v>83.74499893188477</v>
